--- a/assignment/tran-thi-hang/assigment-webui/Data Files/excel-data/quan-ly-tai-khoan.xlsx
+++ b/assignment/tran-thi-hang/assigment-webui/Data Files/excel-data/quan-ly-tai-khoan.xlsx
@@ -104,7 +104,7 @@
     <t>Hang1234@!</t>
   </si>
   <si>
-    <t>hahaa8@gmail.com</t>
+    <t>hahaaaa1@gmail.com</t>
   </si>
 </sst>
 </file>
